--- a/counselear_credentials.xlsx
+++ b/counselear_credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FFCR_Project\Counselear Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12A0701-D02C-4C4A-8EF2-2D95728191BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89614FAC-EED6-4E8E-8A57-7840B288EBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,8 +418,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -440,9 +440,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{8BA9B565-E71A-4CBF-B8E7-B5462B9C76E9}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{061A6584-9242-4070-A347-02ADA652D41F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>